--- a/Grade 2018/FinalScores/2018Grade_Score_ZW_Final.xlsx
+++ b/Grade 2018/FinalScores/2018Grade_Score_ZW_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\Sept 2020 - Jan 2021\Grade 2018\FinalScores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC74B1DB-C2DD-4938-A615-2BF265023F9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F53FB8-33C6-4182-997B-E951F664592F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="456">
   <si>
     <t>NIIT ID</t>
   </si>
@@ -1416,6 +1416,12 @@
   </si>
   <si>
     <t xml:space="preserve"> 安继奎</t>
+  </si>
+  <si>
+    <t>田嘉喜</t>
+  </si>
+  <si>
+    <t>Dream</t>
   </si>
 </sst>
 </file>
@@ -1426,11 +1432,18 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0_);\(0\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1592,9 +1605,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -1604,64 +1620,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1670,16 +1686,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 3" xfId="2" xr:uid="{87CC55C9-0D94-4779-AED9-89DAED4F6E47}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1912,7 +1929,10 @@
           </cell>
         </row>
         <row r="44">
-          <cell r="CL44">
+          <cell r="CL44"/>
+        </row>
+        <row r="45">
+          <cell r="CL45">
             <v>1</v>
           </cell>
         </row>
@@ -1930,7 +1950,7 @@
         </row>
         <row r="5">
           <cell r="CL5">
-            <v>0</v>
+            <v>0.88888888888888884</v>
           </cell>
         </row>
         <row r="6">
@@ -2917,6 +2937,11 @@
             <v>#DIV/0!</v>
           </cell>
         </row>
+        <row r="46">
+          <cell r="J46" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="4">
@@ -3918,6 +3943,11 @@
             <v>#DIV/0!</v>
           </cell>
         </row>
+        <row r="46">
+          <cell r="P46" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="4">
@@ -4915,7 +4945,10 @@
           </cell>
         </row>
         <row r="45">
-          <cell r="L45">
+          <cell r="L45"/>
+        </row>
+        <row r="46">
+          <cell r="L46">
             <v>0</v>
           </cell>
         </row>
@@ -5961,10 +5994,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -7874,18 +7907,18 @@
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="3">
-        <v>12017245779</v>
+        <v>12016246281</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>364</v>
+        <v>454</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>365</v>
+        <v>455</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="7">
         <f>[1]CC_1!CL44*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="4" t="e">
         <f>[2]CC1!J45</f>
@@ -7909,10 +7942,55 @@
       </c>
       <c r="L43" s="8">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M43" s="24" t="e">
         <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3">
+        <v>12017245779</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="7">
+        <f>[1]CC_1!CL45*100</f>
+        <v>100</v>
+      </c>
+      <c r="G44" s="4" t="e">
+        <f>[2]CC1!J46</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H44" s="2" t="e">
+        <f>[3]CC1!P46</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I44" s="4">
+        <f>[4]CC1_ZW!L46</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="5" t="e">
+        <f t="shared" ref="J44" si="4">E44*0.5+G44*0.15+H44*0.15+I44*0.2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K44" s="6" t="e">
+        <f t="shared" ref="K44" si="5">J44*0.9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L44" s="8">
+        <f t="shared" ref="L44" si="6">F44*0.1</f>
+        <v>10</v>
+      </c>
+      <c r="M44" s="24" t="e">
+        <f t="shared" ref="M44" si="7">K44+L44</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8098,7 +8176,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="7">
         <f>[1]CC_2!CL5*100</f>
-        <v>0</v>
+        <v>88.888888888888886</v>
       </c>
       <c r="G4" s="4" t="e">
         <f>[2]CC2!J6</f>
@@ -8122,7 +8200,7 @@
       </c>
       <c r="L4" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8.8888888888888893</v>
       </c>
       <c r="M4" s="24" t="e">
         <f t="shared" si="3"/>
